--- a/medicine/Autisme/Suzie_(film)/Suzie_(film).xlsx
+++ b/medicine/Autisme/Suzie_(film)/Suzie_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Suzie est un film québécois de Micheline Lanctôt sorti le 17 avril 2009.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un soir d'Halloween, Charles, un garçon autiste de dix ans, prend discrètement place dans le taxi de Suzie, 58 ans et dépressive. Celle-ci découvre sur son jeune client un papier, écrit par sa mère, indiquant qu'il doit se rendre chez son père. Mais ce dernier, qui s'apprête à partir en voyage, renvoie l'enfant chez sa maman. Peu après, le père rapplique au domicile de cette dernière, et une dispute éclate, dont Suzie est le témoin muet. Réalisant que les parents ne savent que faire de leur gamin, la quinquagénaire part avec lui. Dans un tripot clandestin, elle réunit au poker la somme nécessaire à l'achat de deux billets d'avion pour le Maroc, où elle espère retrouver sa propre fille, enlevée par son père il y a plus de vingt ans. Mais ce beau rêve se heurte à la dure réalité.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Date de sortie en salle au  17 avril 2009
 Pays d'origine :   Canada ( Québec) Film Québécois
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Micheline Lanctôt : Suzie
 Pascale Bussières : Viviane, la mère de Charles
